--- a/config_12.22/game_module_config.xlsx
+++ b/config_12.22/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3493,10 +3493,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_030_hd_zjm</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3926,26 +3922,37 @@
     <t>act_039_jzhhl</t>
   </si>
   <si>
-    <t>饺子换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_039_JZHHLManager</t>
   </si>
   <si>
+    <t>act_039_jzsjb</t>
+  </si>
+  <si>
+    <t>Act_039_JZSJBManager</t>
+  </si>
+  <si>
+    <t>饺子收集榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_drop</t>
+  </si>
+  <si>
+    <t>Act_039_TYBYDROPManager</t>
+  </si>
+  <si>
+    <t>捕鱼通用掉落活动</t>
+  </si>
+  <si>
+    <t>12月28日23:59:59</t>
+  </si>
+  <si>
+    <t>饺子换好礼→圣诞福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>12月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
+      <t>12月21</t>
     </r>
     <r>
       <rPr>
@@ -3959,31 +3966,12 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
-  <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
-    <t>饺子收集榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
-  </si>
-  <si>
-    <t>捕鱼通用掉落活动</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4058,6 +4046,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4141,7 +4136,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4278,6 +4273,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4560,10 +4561,10 @@
   <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B310" sqref="B310"/>
+      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8529,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11542,7 +11543,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C275" s="18" t="s">
         <v>820</v>
@@ -11563,30 +11564,30 @@
         <v>823</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="19">
+    <row r="276" spans="1:9" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="31">
         <v>275</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="33" t="s">
         <v>825</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="33" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="46" t="s">
         <v>826</v>
       </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="I276" s="24" t="s">
-        <v>827</v>
+      <c r="E276" s="32">
+        <v>1</v>
+      </c>
+      <c r="F276" s="32">
+        <v>1</v>
+      </c>
+      <c r="G276" s="32">
+        <v>1</v>
+      </c>
+      <c r="I276" s="47" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11594,22 +11595,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>828</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="24" t="s">
         <v>829</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11617,25 +11618,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="36" t="s">
+        <v>830</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="D278" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="E278" s="38">
+        <v>1</v>
+      </c>
+      <c r="F278" s="38">
+        <v>1</v>
+      </c>
+      <c r="G278" s="38">
+        <v>1</v>
+      </c>
+      <c r="I278" s="36" t="s">
         <v>923</v>
-      </c>
-      <c r="D278" s="37" t="s">
-        <v>832</v>
-      </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="36" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11643,25 +11644,25 @@
         <v>278</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D279" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="24" t="s">
         <v>833</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11669,22 +11670,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="24" t="s">
         <v>836</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11692,13 +11693,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11710,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11718,13 +11719,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -11736,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11744,25 +11745,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11770,25 +11771,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="D284" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="24" t="s">
         <v>850</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11796,13 +11797,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C285" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="C285" s="30" t="s">
-        <v>857</v>
-      </c>
       <c r="D285" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E285" s="28">
         <v>1</v>
@@ -11822,25 +11823,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C286" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="D286" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="D286" s="23" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11848,13 +11849,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="C287" s="18" t="s">
-        <v>865</v>
-      </c>
       <c r="D287" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -11874,25 +11875,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="C288" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="D288" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="D288" s="23" t="s">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="24" t="s">
         <v>868</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11900,25 +11901,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="D289" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="E289" s="32">
+        <v>1</v>
+      </c>
+      <c r="F289" s="32">
+        <v>1</v>
+      </c>
+      <c r="G289" s="32">
+        <v>1</v>
+      </c>
+      <c r="I289" s="33" t="s">
         <v>870</v>
-      </c>
-      <c r="C289" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="D289" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="E289" s="32">
-        <v>1</v>
-      </c>
-      <c r="F289" s="32">
-        <v>1</v>
-      </c>
-      <c r="G289" s="32">
-        <v>1</v>
-      </c>
-      <c r="I289" s="33" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11926,10 +11927,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E290" s="32">
         <v>1</v>
@@ -11941,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11949,25 +11950,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="D291" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="D291" s="23" t="s">
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="24" t="s">
         <v>878</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11975,25 +11976,25 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="C292" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="D292" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="D292" s="25" t="s">
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="24" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12001,13 +12002,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="D293" s="25" t="s">
         <v>885</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>886</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -12027,13 +12028,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -12053,25 +12054,25 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D295" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="24" t="s">
         <v>890</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12079,13 +12080,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="C296" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="D296" s="25" t="s">
         <v>895</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>896</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -12105,13 +12106,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="C297" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="D297" s="25" t="s">
         <v>898</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>899</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -12131,13 +12132,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C298" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="C298" s="18" t="s">
-        <v>901</v>
-      </c>
       <c r="D298" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12149,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12157,13 +12158,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D299" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -12175,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12183,14 +12184,14 @@
         <v>299</v>
       </c>
       <c r="B300" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C300" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="D300" s="25" t="s">
         <v>907</v>
       </c>
-      <c r="D300" s="25" t="s">
-        <v>908</v>
-      </c>
       <c r="E300">
         <v>0</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12209,25 +12210,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C301" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="D301" s="25" t="s">
         <v>910</v>
       </c>
-      <c r="D301" s="25" t="s">
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="I301" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-      <c r="I301" s="24" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12235,25 +12236,25 @@
         <v>301</v>
       </c>
       <c r="B302" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="C302" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="C302" s="41" t="s">
+      <c r="D302" s="40" t="s">
         <v>917</v>
       </c>
-      <c r="D302" s="40" t="s">
+      <c r="E302" s="42">
+        <v>1</v>
+      </c>
+      <c r="F302" s="42">
+        <v>1</v>
+      </c>
+      <c r="G302" s="42">
+        <v>1</v>
+      </c>
+      <c r="I302" s="43" t="s">
         <v>918</v>
-      </c>
-      <c r="E302" s="42">
-        <v>1</v>
-      </c>
-      <c r="F302" s="42">
-        <v>1</v>
-      </c>
-      <c r="G302" s="42">
-        <v>1</v>
-      </c>
-      <c r="I302" s="43" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12261,14 +12262,14 @@
         <v>302</v>
       </c>
       <c r="B303" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C303" s="41" t="s">
+        <v>919</v>
+      </c>
+      <c r="D303" s="40" t="s">
         <v>920</v>
       </c>
-      <c r="D303" s="40" t="s">
-        <v>921</v>
-      </c>
       <c r="E303" s="42">
         <v>0</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12287,11 +12288,11 @@
         <v>303</v>
       </c>
       <c r="B304" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="C304" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="C304" s="41" t="s">
-        <v>926</v>
-      </c>
       <c r="E304" s="42">
         <v>1</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12310,14 +12311,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="40" t="s">
+        <v>927</v>
+      </c>
+      <c r="C305" s="41" t="s">
+        <v>926</v>
+      </c>
+      <c r="D305" s="40" t="s">
         <v>928</v>
       </c>
-      <c r="C305" s="41" t="s">
-        <v>927</v>
-      </c>
-      <c r="D305" s="40" t="s">
-        <v>929</v>
-      </c>
       <c r="E305" s="42">
         <v>1</v>
       </c>
@@ -12328,7 +12329,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12336,49 +12337,48 @@
         <v>305</v>
       </c>
       <c r="B306" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="D306" s="40" t="s">
         <v>930</v>
       </c>
-      <c r="D306" s="40" t="s">
+      <c r="E306" s="42">
+        <v>1</v>
+      </c>
+      <c r="F306" s="42">
+        <v>1</v>
+      </c>
+      <c r="G306" s="42">
+        <v>1</v>
+      </c>
+      <c r="I306" s="43" t="s">
         <v>931</v>
       </c>
-      <c r="E306" s="42">
-        <v>1</v>
-      </c>
-      <c r="F306" s="42">
-        <v>1</v>
-      </c>
-      <c r="G306" s="42">
-        <v>1</v>
-      </c>
-      <c r="I306" s="43" t="s">
+    </row>
+    <row r="307" spans="1:9" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A307" s="31">
+        <v>306</v>
+      </c>
+      <c r="B307" s="46" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307" s="7">
-        <v>306</v>
-      </c>
-      <c r="B307" s="44" t="s">
+      <c r="C307" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="D307" s="46" t="s">
         <v>933</v>
       </c>
-      <c r="C307" s="45" t="s">
-        <v>934</v>
-      </c>
-      <c r="D307" s="44" t="s">
-        <v>935</v>
-      </c>
-      <c r="E307" s="2">
-        <v>1</v>
-      </c>
-      <c r="F307" s="2">
-        <v>1</v>
-      </c>
-      <c r="G307" s="2">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2"/>
-      <c r="I307" s="45" t="s">
-        <v>936</v>
+      <c r="E307" s="32">
+        <v>1</v>
+      </c>
+      <c r="F307" s="32">
+        <v>1</v>
+      </c>
+      <c r="G307" s="32">
+        <v>1</v>
+      </c>
+      <c r="I307" s="47" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12386,13 +12386,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="44" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C308" s="45" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D308" s="44" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="H308" s="2"/>
       <c r="I308" s="45" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12413,13 +12413,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="44" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C309" s="44" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D309" s="44" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E309" s="2">
         <v>1</v>
@@ -12431,8 +12431,8 @@
         <v>1</v>
       </c>
       <c r="H309" s="2"/>
-      <c r="I309" s="45" t="s">
-        <v>936</v>
+      <c r="I309" s="43" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.22/game_module_config.xlsx
+++ b/config_12.22/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="941">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3682,15 +3682,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>立冬福袋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福利（小游戏）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3959,6 +3951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4136,7 +4129,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4182,9 +4175,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4215,9 +4205,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4230,19 +4217,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4252,9 +4230,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4280,6 +4255,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4558,18 +4536,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C296" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
+      <selection pane="bottomRight" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="19" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
@@ -4581,7 +4559,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4610,7 +4588,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4636,7 +4614,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4662,7 +4640,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4688,7 +4666,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4714,7 +4692,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4740,7 +4718,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -4766,7 +4744,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4792,7 +4770,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4818,7 +4796,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4844,7 +4822,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4870,7 +4848,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -4896,7 +4874,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4922,7 +4900,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4948,7 +4926,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4974,7 +4952,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5000,7 +4978,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5026,7 +5004,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5052,7 +5030,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5078,7 +5056,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5104,7 +5082,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5130,7 +5108,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5156,7 +5134,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5182,7 +5160,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -5208,7 +5186,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -5234,7 +5212,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5260,7 +5238,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5286,7 +5264,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5312,7 +5290,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5338,7 +5316,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5364,7 +5342,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5390,7 +5368,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5416,7 +5394,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5442,7 +5420,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5468,7 +5446,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5494,7 +5472,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5520,7 +5498,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5546,7 +5524,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5572,7 +5550,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5598,7 +5576,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5624,7 +5602,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -5650,7 +5628,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5676,7 +5654,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -5702,7 +5680,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -5728,7 +5706,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5754,7 +5732,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5780,7 +5758,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5806,7 +5784,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5832,7 +5810,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5858,7 +5836,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5884,7 +5862,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5910,7 +5888,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5934,7 +5912,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -5960,7 +5938,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -5986,7 +5964,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6012,7 +5990,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6038,7 +6016,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6064,7 +6042,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6090,7 +6068,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6116,7 +6094,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6142,7 +6120,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6168,7 +6146,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6194,7 +6172,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6220,7 +6198,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6246,7 +6224,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6272,7 +6250,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6298,7 +6276,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6324,7 +6302,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6350,7 +6328,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6376,7 +6354,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6402,7 +6380,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6428,7 +6406,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -6454,7 +6432,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -6480,7 +6458,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -6506,7 +6484,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -6532,7 +6510,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -6558,7 +6536,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -6584,7 +6562,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -6610,7 +6588,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -6636,7 +6614,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -6662,7 +6640,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -6688,7 +6666,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -6714,7 +6692,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -6740,7 +6718,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -6766,7 +6744,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -6792,7 +6770,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -6818,7 +6796,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -6844,7 +6822,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -6870,7 +6848,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -6896,7 +6874,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -6922,7 +6900,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="18">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -6948,7 +6926,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="18">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -6974,7 +6952,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="18">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -7000,7 +6978,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="18">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -7026,7 +7004,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="18">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -7052,7 +7030,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="18">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -7078,7 +7056,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="18">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -7104,7 +7082,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="18">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -7130,7 +7108,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="18">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -7156,7 +7134,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="18">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7182,7 +7160,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="18">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -7208,7 +7186,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="18">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -7234,7 +7212,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="18">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7260,7 +7238,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="18">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -7286,7 +7264,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="18">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -7312,7 +7290,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="18">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -7338,7 +7316,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="18">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -7364,7 +7342,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="18">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -7390,7 +7368,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="18">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -7416,7 +7394,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="18">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -7442,7 +7420,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="18">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -7468,7 +7446,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="18">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -7494,7 +7472,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="18">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -7520,7 +7498,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="18">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -7546,7 +7524,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="18">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7572,7 +7550,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="18">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -7598,7 +7576,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="18">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -7624,7 +7602,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="18">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -7650,7 +7628,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="18">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -7676,7 +7654,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="18">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -7702,7 +7680,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="18">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -7728,7 +7706,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="18">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -7754,7 +7732,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="18">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -7780,7 +7758,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="18">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -7806,7 +7784,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="18">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -7832,7 +7810,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="18">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -7858,7 +7836,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="18">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7884,7 +7862,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="18">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -7910,7 +7888,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="18">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -7936,7 +7914,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="18">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -7962,7 +7940,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="18">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -7988,7 +7966,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="18">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -8014,7 +7992,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="18">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -8040,7 +8018,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="18">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -8066,7 +8044,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="18">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -8092,7 +8070,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="18">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -8118,7 +8096,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="18">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -8144,7 +8122,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="18">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -8170,7 +8148,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="18">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -8196,7 +8174,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="18">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -8222,7 +8200,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="18">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8248,7 +8226,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="18">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -8274,7 +8252,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="18">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -8300,7 +8278,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="18">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -8326,7 +8304,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="18">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -8352,7 +8330,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="18">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -8378,7 +8356,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="18">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -8404,7 +8382,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="18">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -8430,7 +8408,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="18">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -8456,7 +8434,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="18">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -8482,7 +8460,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="18">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -8508,7 +8486,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
+      <c r="A152" s="18">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -8534,7 +8512,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
+      <c r="A153" s="18">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -8560,7 +8538,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
+      <c r="A154" s="18">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8586,7 +8564,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
+      <c r="A155" s="18">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8612,7 +8590,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
+      <c r="A156" s="18">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -8638,7 +8616,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
+      <c r="A157" s="18">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -8664,7 +8642,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
+      <c r="A158" s="18">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -8690,7 +8668,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
+      <c r="A159" s="18">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -8716,7 +8694,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
+      <c r="A160" s="18">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -8742,7 +8720,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
+      <c r="A161" s="18">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -8768,7 +8746,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
+      <c r="A162" s="18">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -8794,7 +8772,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
+      <c r="A163" s="18">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -8820,7 +8798,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
+      <c r="A164" s="18">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -8846,7 +8824,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
+      <c r="A165" s="18">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -8872,7 +8850,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
+      <c r="A166" s="18">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -8898,7 +8876,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
+      <c r="A167" s="18">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -8924,7 +8902,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
+      <c r="A168" s="18">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -8950,7 +8928,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
+      <c r="A169" s="18">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -8976,7 +8954,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
+      <c r="A170" s="18">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -9000,7 +8978,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
+      <c r="A171" s="18">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -9024,7 +9002,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
+      <c r="A172" s="18">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -9048,7 +9026,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
+      <c r="A173" s="18">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -9072,7 +9050,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
+      <c r="A174" s="18">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -9098,7 +9076,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
+      <c r="A175" s="18">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -9122,7 +9100,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
+      <c r="A176" s="18">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -9146,7 +9124,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
+      <c r="A177" s="18">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9170,7 +9148,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
+      <c r="A178" s="18">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -9196,7 +9174,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
+      <c r="A179" s="18">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -9222,7 +9200,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
+      <c r="A180" s="18">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -9246,7 +9224,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
+      <c r="A181" s="18">
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
@@ -9270,7 +9248,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
+      <c r="A182" s="18">
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -9294,7 +9272,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
+      <c r="A183" s="18">
         <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
@@ -9318,7 +9296,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
+      <c r="A184" s="18">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -9341,7 +9319,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
+      <c r="A185" s="18">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -9364,7 +9342,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
+      <c r="A186" s="18">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -9387,7 +9365,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
+      <c r="A187" s="18">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -9410,7 +9388,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
+      <c r="A188" s="18">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -9433,7 +9411,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
+      <c r="A189" s="18">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -9456,7 +9434,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
+      <c r="A190" s="18">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -9479,7 +9457,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
+      <c r="A191" s="18">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -9502,7 +9480,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
+      <c r="A192" s="18">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -9525,7 +9503,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
+      <c r="A193" s="18">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -9548,7 +9526,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
+      <c r="A194" s="18">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -9571,7 +9549,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
+      <c r="A195" s="18">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -9594,7 +9572,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
+      <c r="A196" s="18">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -9617,7 +9595,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
+      <c r="A197" s="18">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -9640,7 +9618,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
+      <c r="A198" s="18">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -9663,7 +9641,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
+      <c r="A199" s="18">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -9686,7 +9664,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
+      <c r="A200" s="18">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -9709,7 +9687,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="18">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -9732,7 +9710,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="18">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -9755,7 +9733,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="18">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -9778,7 +9756,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="18">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -9801,7 +9779,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="18">
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -9827,7 +9805,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="18">
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -9853,7 +9831,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="18">
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
@@ -9879,7 +9857,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="18">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -9902,7 +9880,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="18">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -9925,7 +9903,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="18">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -9948,7 +9926,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="18">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -9971,7 +9949,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="18">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -9994,7 +9972,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="18">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -10017,7 +9995,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="18">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -10040,7 +10018,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="18">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -10063,7 +10041,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="18">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -10086,7 +10064,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
+      <c r="A217" s="18">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -10109,7 +10087,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
+      <c r="A218" s="18">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -10132,7 +10110,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
+      <c r="A219" s="18">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -10155,7 +10133,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
+      <c r="A220" s="18">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -10178,7 +10156,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
+      <c r="A221" s="18">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -10201,7 +10179,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
+      <c r="A222" s="18">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -10224,7 +10202,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
+      <c r="A223" s="18">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -10247,7 +10225,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
+      <c r="A224" s="18">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -10270,7 +10248,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
+      <c r="A225" s="18">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -10293,7 +10271,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
+      <c r="A226" s="18">
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -10316,7 +10294,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
+      <c r="A227" s="18">
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -10339,7 +10317,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
+      <c r="A228" s="18">
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -10362,7 +10340,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
+      <c r="A229" s="18">
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -10385,7 +10363,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
+      <c r="A230" s="18">
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -10408,7 +10386,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
+      <c r="A231" s="18">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -10431,7 +10409,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
+      <c r="A232" s="18">
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -10454,7 +10432,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
+      <c r="A233" s="18">
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -10477,7 +10455,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
+      <c r="A234" s="18">
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -10500,7 +10478,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
+      <c r="A235" s="18">
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -10523,7 +10501,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
+      <c r="A236" s="18">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -10549,7 +10527,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
+      <c r="A237" s="18">
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -10575,7 +10553,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
+      <c r="A238" s="18">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
@@ -10601,7 +10579,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
+      <c r="A239" s="18">
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -10627,7 +10605,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
+      <c r="A240" s="18">
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
@@ -10653,7 +10631,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
+      <c r="A241" s="18">
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
@@ -10679,7 +10657,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
+      <c r="A242" s="18">
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -10705,7 +10683,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
+      <c r="A243" s="18">
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
@@ -10731,7 +10709,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
+      <c r="A244" s="18">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
@@ -10757,7 +10735,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
+      <c r="A245" s="18">
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
@@ -10783,7 +10761,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
+      <c r="A246" s="18">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -10809,7 +10787,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
+      <c r="A247" s="18">
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -10835,7 +10813,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
+      <c r="A248" s="18">
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
@@ -10861,7 +10839,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
+      <c r="A249" s="18">
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
@@ -10887,7 +10865,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+      <c r="A250" s="18">
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
@@ -10913,7 +10891,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
+      <c r="A251" s="18">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -10939,7 +10917,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
+      <c r="A252" s="18">
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -10965,7 +10943,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
+      <c r="A253" s="18">
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -10991,7 +10969,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
+      <c r="A254" s="18">
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
@@ -11017,7 +10995,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
+      <c r="A255" s="18">
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
@@ -11043,7 +11021,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
+      <c r="A256" s="18">
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -11068,138 +11046,138 @@
         <v>754</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="19">
+    <row r="257" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="18">
         <v>256</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="E257" s="20">
-        <v>0</v>
-      </c>
-      <c r="F257" s="20">
-        <v>1</v>
-      </c>
-      <c r="G257" s="20">
-        <v>1</v>
-      </c>
-      <c r="I257" s="18" t="s">
+      <c r="E257" s="19">
+        <v>0</v>
+      </c>
+      <c r="F257" s="19">
+        <v>1</v>
+      </c>
+      <c r="G257" s="19">
+        <v>1</v>
+      </c>
+      <c r="I257" s="17" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="19">
+    <row r="258" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="18">
         <v>257</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D258" s="17" t="s">
         <v>761</v>
       </c>
-      <c r="E258" s="20">
-        <v>0</v>
-      </c>
-      <c r="F258" s="20">
-        <v>1</v>
-      </c>
-      <c r="G258" s="20">
-        <v>1</v>
-      </c>
-      <c r="I258" s="18" t="s">
+      <c r="E258" s="19">
+        <v>0</v>
+      </c>
+      <c r="F258" s="19">
+        <v>1</v>
+      </c>
+      <c r="G258" s="19">
+        <v>1</v>
+      </c>
+      <c r="I258" s="17" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="19">
+    <row r="259" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="18">
         <v>258</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="E259" s="20">
-        <v>0</v>
-      </c>
-      <c r="F259" s="20">
-        <v>1</v>
-      </c>
-      <c r="G259" s="20">
-        <v>1</v>
-      </c>
-      <c r="I259" s="18" t="s">
+      <c r="E259" s="19">
+        <v>0</v>
+      </c>
+      <c r="F259" s="19">
+        <v>1</v>
+      </c>
+      <c r="G259" s="19">
+        <v>1</v>
+      </c>
+      <c r="I259" s="17" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="19">
+    <row r="260" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="18">
         <v>259</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="E260" s="20">
-        <v>1</v>
-      </c>
-      <c r="F260" s="20">
-        <v>1</v>
-      </c>
-      <c r="G260" s="20">
-        <v>1</v>
-      </c>
-      <c r="I260" s="18" t="s">
+      <c r="E260" s="19">
+        <v>1</v>
+      </c>
+      <c r="F260" s="19">
+        <v>1</v>
+      </c>
+      <c r="G260" s="19">
+        <v>1</v>
+      </c>
+      <c r="I260" s="17" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="19">
+    <row r="261" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="18">
         <v>260</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="E261" s="20">
-        <v>0</v>
-      </c>
-      <c r="F261" s="20">
-        <v>1</v>
-      </c>
-      <c r="G261" s="20">
-        <v>1</v>
-      </c>
-      <c r="I261" s="18" t="s">
+      <c r="E261" s="19">
+        <v>0</v>
+      </c>
+      <c r="F261" s="19">
+        <v>1</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1</v>
+      </c>
+      <c r="I261" s="17" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
+      <c r="A262" s="18">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -11225,16 +11203,16 @@
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
+      <c r="A263" s="18">
         <v>262</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="17" t="s">
         <v>778</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="17" t="s">
         <v>780</v>
       </c>
       <c r="E263">
@@ -11250,279 +11228,279 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="19">
+    <row r="264" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="18">
         <v>263</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="E264" s="20">
-        <v>0</v>
-      </c>
-      <c r="F264" s="20">
-        <v>0</v>
-      </c>
-      <c r="G264" s="20">
-        <v>0</v>
-      </c>
-      <c r="I264" s="18" t="s">
+      <c r="E264" s="19">
+        <v>0</v>
+      </c>
+      <c r="F264" s="19">
+        <v>0</v>
+      </c>
+      <c r="G264" s="19">
+        <v>0</v>
+      </c>
+      <c r="I264" s="17" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="19">
+    <row r="265" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="18">
         <v>264</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="E265" s="20">
-        <v>0</v>
-      </c>
-      <c r="F265" s="20">
-        <v>0</v>
-      </c>
-      <c r="G265" s="20">
-        <v>0</v>
-      </c>
-      <c r="I265" s="18" t="s">
+      <c r="E265" s="19">
+        <v>0</v>
+      </c>
+      <c r="F265" s="19">
+        <v>0</v>
+      </c>
+      <c r="G265" s="19">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="19">
+    <row r="266" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="18">
         <v>265</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="D266" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="E266" s="20">
-        <v>0</v>
-      </c>
-      <c r="F266" s="20">
-        <v>0</v>
-      </c>
-      <c r="G266" s="20">
-        <v>0</v>
-      </c>
-      <c r="I266" s="20" t="s">
+      <c r="E266" s="19">
+        <v>0</v>
+      </c>
+      <c r="F266" s="19">
+        <v>0</v>
+      </c>
+      <c r="G266" s="19">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="19">
+    <row r="267" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="18">
         <v>266</v>
       </c>
-      <c r="B267" s="18" t="s">
+      <c r="B267" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C267" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="D267" s="23" t="s">
+      <c r="D267" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="E267" s="20">
-        <v>0</v>
-      </c>
-      <c r="F267" s="20">
-        <v>0</v>
-      </c>
-      <c r="G267" s="20">
-        <v>0</v>
-      </c>
-      <c r="I267" s="24" t="s">
+      <c r="E267" s="19">
+        <v>0</v>
+      </c>
+      <c r="F267" s="19">
+        <v>0</v>
+      </c>
+      <c r="G267" s="19">
+        <v>0</v>
+      </c>
+      <c r="I267" s="23" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="19">
+    <row r="268" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="18">
         <v>267</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="D268" s="23" t="s">
+      <c r="D268" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="E268" s="20">
-        <v>0</v>
-      </c>
-      <c r="F268" s="20">
-        <v>0</v>
-      </c>
-      <c r="G268" s="20">
-        <v>0</v>
-      </c>
-      <c r="I268" s="24" t="s">
+      <c r="E268" s="19">
+        <v>0</v>
+      </c>
+      <c r="F268" s="19">
+        <v>0</v>
+      </c>
+      <c r="G268" s="19">
+        <v>0</v>
+      </c>
+      <c r="I268" s="23" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="19">
+    <row r="269" spans="1:9" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="18">
         <v>268</v>
       </c>
-      <c r="B269" s="18" t="s">
+      <c r="B269" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="E269" s="20">
-        <v>1</v>
-      </c>
-      <c r="F269" s="20">
-        <v>1</v>
-      </c>
-      <c r="G269" s="20">
-        <v>1</v>
-      </c>
-      <c r="I269" s="24" t="s">
+      <c r="E269" s="19">
+        <v>1</v>
+      </c>
+      <c r="F269" s="19">
+        <v>1</v>
+      </c>
+      <c r="G269" s="19">
+        <v>1</v>
+      </c>
+      <c r="I269" s="23" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="15">
+      <c r="A270" s="18">
         <v>269</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="C270" s="16" t="s">
+      <c r="C270" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D270" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="E270" s="17">
-        <v>1</v>
-      </c>
-      <c r="F270" s="17">
-        <v>1</v>
-      </c>
-      <c r="G270" s="17">
-        <v>1</v>
-      </c>
-      <c r="H270" s="17"/>
-      <c r="I270" s="21" t="s">
+      <c r="E270" s="16">
+        <v>1</v>
+      </c>
+      <c r="F270" s="16">
+        <v>1</v>
+      </c>
+      <c r="G270" s="16">
+        <v>1</v>
+      </c>
+      <c r="H270" s="16"/>
+      <c r="I270" s="20" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="15">
+      <c r="A271" s="18">
         <v>270</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="C271" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D271" s="22" t="s">
+      <c r="D271" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="E271" s="17">
-        <v>0</v>
-      </c>
-      <c r="F271" s="17">
-        <v>0</v>
-      </c>
-      <c r="G271" s="17">
-        <v>0</v>
-      </c>
-      <c r="H271" s="17"/>
-      <c r="I271" s="21" t="s">
+      <c r="E271" s="16">
+        <v>0</v>
+      </c>
+      <c r="F271" s="16">
+        <v>0</v>
+      </c>
+      <c r="G271" s="16">
+        <v>0</v>
+      </c>
+      <c r="H271" s="16"/>
+      <c r="I271" s="20" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="19">
+      <c r="A272" s="18">
         <v>271</v>
       </c>
-      <c r="B272" s="18" t="s">
+      <c r="B272" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="D272" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="E272" s="20">
-        <v>1</v>
-      </c>
-      <c r="F272" s="20">
-        <v>1</v>
-      </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="I272" s="24" t="s">
+      <c r="E272" s="19">
+        <v>1</v>
+      </c>
+      <c r="F272" s="19">
+        <v>1</v>
+      </c>
+      <c r="G272" s="19">
+        <v>1</v>
+      </c>
+      <c r="I272" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="19">
+      <c r="A273" s="18">
         <v>272</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="D273" s="23" t="s">
+      <c r="D273" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="E273" s="20">
-        <v>1</v>
-      </c>
-      <c r="F273" s="20">
-        <v>1</v>
-      </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="I273" s="24" t="s">
+      <c r="E273" s="19">
+        <v>1</v>
+      </c>
+      <c r="F273" s="19">
+        <v>1</v>
+      </c>
+      <c r="G273" s="19">
+        <v>1</v>
+      </c>
+      <c r="I273" s="23" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="19">
+      <c r="A274" s="18">
         <v>273</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="D274" s="23" t="s">
+      <c r="D274" s="22" t="s">
         <v>818</v>
       </c>
       <c r="E274">
@@ -11534,21 +11512,21 @@
       <c r="G274">
         <v>1</v>
       </c>
-      <c r="I274" s="24" t="s">
+      <c r="I274" s="23" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="19">
+      <c r="A275" s="18">
         <v>274</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="C275" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="D275" s="23" t="s">
+      <c r="D275" s="22" t="s">
         <v>821</v>
       </c>
       <c r="E275">
@@ -11560,840 +11538,844 @@
       <c r="G275">
         <v>0</v>
       </c>
-      <c r="I275" s="24" t="s">
+      <c r="I275" s="23" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A276" s="31">
+    <row r="276" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="18">
         <v>275</v>
       </c>
-      <c r="B276" s="33" t="s">
+      <c r="B276" s="30" t="s">
         <v>825</v>
       </c>
-      <c r="C276" s="33" t="s">
+      <c r="C276" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="D276" s="46" t="s">
+      <c r="D276" s="40" t="s">
         <v>826</v>
       </c>
-      <c r="E276" s="32">
-        <v>1</v>
-      </c>
-      <c r="F276" s="32">
-        <v>1</v>
-      </c>
-      <c r="G276" s="32">
-        <v>1</v>
-      </c>
-      <c r="I276" s="47" t="s">
+      <c r="E276" s="29">
+        <v>1</v>
+      </c>
+      <c r="F276" s="29">
+        <v>1</v>
+      </c>
+      <c r="G276" s="29">
+        <v>1</v>
+      </c>
+      <c r="I276" s="41" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="18">
+        <v>276</v>
+      </c>
+      <c r="B277" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="23" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="18">
+        <v>277</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="D278" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="E278" s="33">
+        <v>1</v>
+      </c>
+      <c r="F278" s="33">
+        <v>1</v>
+      </c>
+      <c r="G278" s="33">
+        <v>1</v>
+      </c>
+      <c r="I278" s="31" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="18">
+        <v>278</v>
+      </c>
+      <c r="B279" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="23" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="18">
+        <v>279</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="18">
+        <v>280</v>
+      </c>
+      <c r="B281" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="I281" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="18">
+        <v>281</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="I282" s="23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="18">
+        <v>282</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="D283" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="23" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="18">
+        <v>283</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="23" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="18">
+        <v>284</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="D285" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="E285" s="26">
+        <v>1</v>
+      </c>
+      <c r="F285" s="26">
+        <v>1</v>
+      </c>
+      <c r="G285" s="26">
+        <v>1</v>
+      </c>
+      <c r="I285" s="27" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="18">
+        <v>285</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="23" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="18">
+        <v>286</v>
+      </c>
+      <c r="B287" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="18">
+        <v>287</v>
+      </c>
+      <c r="B288" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="23" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="18">
+        <v>288</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="E289" s="29">
+        <v>1</v>
+      </c>
+      <c r="F289" s="29">
+        <v>1</v>
+      </c>
+      <c r="G289" s="29">
+        <v>1</v>
+      </c>
+      <c r="I289" s="30" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="18">
+        <v>289</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="I290" s="23" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="18">
+        <v>290</v>
+      </c>
+      <c r="B291" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="23" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="18">
+        <v>291</v>
+      </c>
+      <c r="B292" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="I292" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="18">
+        <v>292</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="I293" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="18">
+        <v>293</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="I294" s="23" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="18">
+        <v>294</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="I295" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="18">
+        <v>295</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="I296" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="18">
+        <v>296</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="17" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="18">
+        <v>297</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="17" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="18">
+        <v>298</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="I299" s="17" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="18">
+        <v>299</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="I300" s="23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="18">
+        <v>300</v>
+      </c>
+      <c r="B301" s="34" t="s">
+        <v>913</v>
+      </c>
+      <c r="C301" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="D301" s="34" t="s">
+        <v>915</v>
+      </c>
+      <c r="E301" s="36">
+        <v>1</v>
+      </c>
+      <c r="F301" s="36">
+        <v>1</v>
+      </c>
+      <c r="G301" s="36">
+        <v>1</v>
+      </c>
+      <c r="I301" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="18">
+        <v>301</v>
+      </c>
+      <c r="B302" s="34" t="s">
+        <v>919</v>
+      </c>
+      <c r="C302" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="D302" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="E302" s="36">
+        <v>0</v>
+      </c>
+      <c r="F302" s="36">
+        <v>0</v>
+      </c>
+      <c r="G302" s="36">
+        <v>0</v>
+      </c>
+      <c r="I302" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="18">
+        <v>302</v>
+      </c>
+      <c r="B303" s="34" t="s">
+        <v>922</v>
+      </c>
+      <c r="C303" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="E303" s="36">
+        <v>1</v>
+      </c>
+      <c r="F303" s="36">
+        <v>1</v>
+      </c>
+      <c r="G303" s="36">
+        <v>1</v>
+      </c>
+      <c r="I303" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="18">
+        <v>303</v>
+      </c>
+      <c r="B304" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="C304" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="D304" s="34" t="s">
+        <v>926</v>
+      </c>
+      <c r="E304" s="36">
+        <v>1</v>
+      </c>
+      <c r="F304" s="36">
+        <v>1</v>
+      </c>
+      <c r="G304" s="36">
+        <v>1</v>
+      </c>
+      <c r="I304" s="37" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="18">
+        <v>304</v>
+      </c>
+      <c r="B305" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="D305" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="E305" s="36">
+        <v>1</v>
+      </c>
+      <c r="F305" s="36">
+        <v>1</v>
+      </c>
+      <c r="G305" s="36">
+        <v>1</v>
+      </c>
+      <c r="I305" s="37" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A306" s="18">
+        <v>305</v>
+      </c>
+      <c r="B306" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="C306" s="30" t="s">
+        <v>939</v>
+      </c>
+      <c r="D306" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="E306" s="29">
+        <v>1</v>
+      </c>
+      <c r="F306" s="29">
+        <v>1</v>
+      </c>
+      <c r="G306" s="29">
+        <v>1</v>
+      </c>
+      <c r="I306" s="41" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="18">
+        <v>306</v>
+      </c>
+      <c r="B307" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="C307" s="39" t="s">
+        <v>934</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="E307" s="2">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <v>1</v>
+      </c>
+      <c r="G307" s="2">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="39" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="19">
-        <v>276</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>827</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>828</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="35">
-        <v>277</v>
-      </c>
-      <c r="B278" s="36" t="s">
-        <v>830</v>
-      </c>
-      <c r="C278" s="36" t="s">
-        <v>922</v>
-      </c>
-      <c r="D278" s="37" t="s">
-        <v>831</v>
-      </c>
-      <c r="E278" s="38">
-        <v>1</v>
-      </c>
-      <c r="F278" s="38">
-        <v>1</v>
-      </c>
-      <c r="G278" s="38">
-        <v>1</v>
-      </c>
-      <c r="I278" s="36" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="19">
-        <v>278</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D279" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="E279">
-        <v>1</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="24" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="19">
-        <v>279</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="24" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="19">
-        <v>280</v>
-      </c>
-      <c r="B281" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="D281" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="I281" s="24" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="19">
-        <v>281</v>
-      </c>
-      <c r="B282" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D282" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="24" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="19">
-        <v>282</v>
-      </c>
-      <c r="B283" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="D283" s="23" t="s">
-        <v>852</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="24" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="19">
-        <v>283</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>847</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="D284" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="E284">
-        <v>1</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="24" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26">
-        <v>284</v>
-      </c>
-      <c r="B285" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="C285" s="30" t="s">
-        <v>856</v>
-      </c>
-      <c r="D285" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="E285" s="28">
-        <v>1</v>
-      </c>
-      <c r="F285" s="28">
-        <v>1</v>
-      </c>
-      <c r="G285" s="28">
-        <v>1</v>
-      </c>
-      <c r="I285" s="29" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="19">
-        <v>285</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="D286" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="24" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="19">
-        <v>286</v>
-      </c>
-      <c r="B287" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="D287" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="E287">
-        <v>1</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-      <c r="I287" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="19">
-        <v>287</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>867</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-      <c r="I288" s="24" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="31">
-        <v>288</v>
-      </c>
-      <c r="B289" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="C289" s="33" t="s">
-        <v>872</v>
-      </c>
-      <c r="D289" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="E289" s="32">
-        <v>1</v>
-      </c>
-      <c r="F289" s="32">
-        <v>1</v>
-      </c>
-      <c r="G289" s="32">
-        <v>1</v>
-      </c>
-      <c r="I289" s="33" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="31">
-        <v>289</v>
-      </c>
-      <c r="B290" s="33" t="s">
-        <v>871</v>
-      </c>
-      <c r="C290" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="E290" s="32">
-        <v>1</v>
-      </c>
-      <c r="F290" s="32">
-        <v>1</v>
-      </c>
-      <c r="G290" s="32">
-        <v>1</v>
-      </c>
-      <c r="I290" s="34" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="19">
-        <v>290</v>
-      </c>
-      <c r="B291" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="C291" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="D291" s="23" t="s">
-        <v>877</v>
-      </c>
-      <c r="E291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>1</v>
-      </c>
-      <c r="I291" s="24" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="19">
-        <v>291</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>879</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>880</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-      <c r="I292" s="24" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="19">
-        <v>292</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="E293">
-        <v>1</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="I293" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="19">
-        <v>293</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>886</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-      <c r="I294" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="19">
-        <v>294</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>889</v>
-      </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="G295">
-        <v>1</v>
-      </c>
-      <c r="I295" s="24" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="19">
-        <v>295</v>
-      </c>
-      <c r="B296" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>895</v>
-      </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="I296" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="19">
-        <v>296</v>
-      </c>
-      <c r="B297" s="25" t="s">
-        <v>896</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="D297" s="25" t="s">
-        <v>898</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-      <c r="I297" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="19">
-        <v>297</v>
-      </c>
-      <c r="B298" s="25" t="s">
-        <v>899</v>
-      </c>
-      <c r="C298" s="18" t="s">
-        <v>900</v>
-      </c>
-      <c r="D298" s="25" t="s">
-        <v>902</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="I298" s="18" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="19">
-        <v>298</v>
-      </c>
-      <c r="B299" s="25" t="s">
-        <v>904</v>
-      </c>
-      <c r="C299" s="18" t="s">
-        <v>901</v>
-      </c>
-      <c r="D299" s="25" t="s">
-        <v>903</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="19">
-        <v>299</v>
-      </c>
-      <c r="B300" s="25" t="s">
-        <v>905</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="D300" s="25" t="s">
-        <v>907</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="19">
-        <v>300</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="C301" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="D301" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
-      </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-      <c r="I301" s="24" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="39">
-        <v>301</v>
-      </c>
-      <c r="B302" s="40" t="s">
-        <v>915</v>
-      </c>
-      <c r="C302" s="41" t="s">
-        <v>916</v>
-      </c>
-      <c r="D302" s="40" t="s">
-        <v>917</v>
-      </c>
-      <c r="E302" s="42">
-        <v>1</v>
-      </c>
-      <c r="F302" s="42">
-        <v>1</v>
-      </c>
-      <c r="G302" s="42">
-        <v>1</v>
-      </c>
-      <c r="I302" s="43" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="39">
-        <v>302</v>
-      </c>
-      <c r="B303" s="40" t="s">
-        <v>921</v>
-      </c>
-      <c r="C303" s="41" t="s">
-        <v>919</v>
-      </c>
-      <c r="D303" s="40" t="s">
-        <v>920</v>
-      </c>
-      <c r="E303" s="42">
-        <v>0</v>
-      </c>
-      <c r="F303" s="42">
-        <v>0</v>
-      </c>
-      <c r="G303" s="42">
-        <v>0</v>
-      </c>
-      <c r="I303" s="43" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="39">
-        <v>303</v>
-      </c>
-      <c r="B304" s="40" t="s">
-        <v>924</v>
-      </c>
-      <c r="C304" s="41" t="s">
-        <v>925</v>
-      </c>
-      <c r="E304" s="42">
-        <v>1</v>
-      </c>
-      <c r="F304" s="42">
-        <v>1</v>
-      </c>
-      <c r="G304" s="42">
-        <v>1</v>
-      </c>
-      <c r="I304" s="43" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="39">
-        <v>304</v>
-      </c>
-      <c r="B305" s="40" t="s">
-        <v>927</v>
-      </c>
-      <c r="C305" s="41" t="s">
-        <v>926</v>
-      </c>
-      <c r="D305" s="40" t="s">
-        <v>928</v>
-      </c>
-      <c r="E305" s="42">
-        <v>1</v>
-      </c>
-      <c r="F305" s="42">
-        <v>1</v>
-      </c>
-      <c r="G305" s="42">
-        <v>1</v>
-      </c>
-      <c r="I305" s="43" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="39">
-        <v>305</v>
-      </c>
-      <c r="B306" s="40" t="s">
-        <v>929</v>
-      </c>
-      <c r="D306" s="40" t="s">
-        <v>930</v>
-      </c>
-      <c r="E306" s="42">
-        <v>1</v>
-      </c>
-      <c r="F306" s="42">
-        <v>1</v>
-      </c>
-      <c r="G306" s="42">
-        <v>1</v>
-      </c>
-      <c r="I306" s="43" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A307" s="31">
-        <v>306</v>
-      </c>
-      <c r="B307" s="46" t="s">
-        <v>932</v>
-      </c>
-      <c r="C307" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>933</v>
-      </c>
-      <c r="E307" s="32">
-        <v>1</v>
-      </c>
-      <c r="F307" s="32">
-        <v>1</v>
-      </c>
-      <c r="G307" s="32">
-        <v>1</v>
-      </c>
-      <c r="I307" s="47" t="s">
-        <v>940</v>
-      </c>
-    </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308" s="7">
+      <c r="A308" s="18">
         <v>307</v>
       </c>
-      <c r="B308" s="44" t="s">
-        <v>934</v>
-      </c>
-      <c r="C308" s="45" t="s">
+      <c r="B308" s="38" t="s">
+        <v>935</v>
+      </c>
+      <c r="C308" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="D308" s="38" t="s">
         <v>936</v>
       </c>
-      <c r="D308" s="44" t="s">
-        <v>935</v>
-      </c>
       <c r="E308" s="2">
         <v>1</v>
       </c>
@@ -12404,34 +12386,7 @@
         <v>1</v>
       </c>
       <c r="H308" s="2"/>
-      <c r="I308" s="45" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="7">
-        <v>308</v>
-      </c>
-      <c r="B309" s="44" t="s">
-        <v>937</v>
-      </c>
-      <c r="C309" s="44" t="s">
-        <v>939</v>
-      </c>
-      <c r="D309" s="44" t="s">
-        <v>938</v>
-      </c>
-      <c r="E309" s="2">
-        <v>1</v>
-      </c>
-      <c r="F309" s="2">
-        <v>1</v>
-      </c>
-      <c r="G309" s="2">
-        <v>1</v>
-      </c>
-      <c r="H309" s="2"/>
-      <c r="I309" s="43" t="s">
+      <c r="I308" s="37" t="s">
         <v>645</v>
       </c>
     </row>

--- a/config_12.22/game_module_config.xlsx
+++ b/config_12.22/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="942">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3957,6 +3957,10 @@
       </rPr>
       <t>日23:59:59</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4542,7 +4546,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C293" sqref="C293"/>
+      <selection pane="bottomRight" activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12293,6 +12297,9 @@
       </c>
       <c r="B305" s="34" t="s">
         <v>927</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>941</v>
       </c>
       <c r="D305" s="34" t="s">
         <v>928</v>

--- a/config_12.22/game_module_config.xlsx
+++ b/config_12.22/game_module_config.xlsx
@@ -4543,10 +4543,10 @@
   <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C308" sqref="C308"/>
+      <selection pane="bottomRight" activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11402,13 +11402,13 @@
         <v>808</v>
       </c>
       <c r="E270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="20" t="s">
